--- a/biology/Zoologie/Echinococcus_vogeli/Echinococcus_vogeli.xlsx
+++ b/biology/Zoologie/Echinococcus_vogeli/Echinococcus_vogeli.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinococcus vogeli est un petit ver Plathelminthe improprement parfois qualifié de ténia, dont la forme adulte parasite l'intestin et divers organes d'animaux sauvages, parfois du chien et plus rarement de l'Homme. Dans ce dernier cas, il donne les divers tableaux de l'hydatidose provoquant des tumeurs parasitaires principalement dans le foie, mais éventuellement dans d'autres organes
 Ce ver parasite est proche de Echinococcus granulosus, et parfois considéré comme un simple variant de cette espèce. 
@@ -514,7 +526,9 @@
           <t>Répartition géographique et importance</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">E. vogeli est endémique en Amérique Centrale et du Sud, alors qu'E. granulosus touche d’autres régions du monde.
 </t>
@@ -545,11 +559,13 @@
           <t>Description Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Larve : semblable à celle de Echinococcus granulosus mais en se développant, elle produit des kystes formés de chambres cloisonnées  (hydatide polykystique) Illustrations (Photos de kystes et larves) (Atlas de médical de parasitologie de al Fondation Carlo Denigri)
 Adulte : semblable à E. granulosus, , mais d’une taille légèrement plus petite (4 à 6 mm)
-À ne pas confondre avec Echinococcus oligarthrus qu’on trouve au Panama et en Argentine chez des félins (puma, jaguar) comme hôte définitif, alors que l’agouti serait l’hôte intermédiaire, développant des kystes polycystiques semblables à ceux d’E. vogeli[2].
+À ne pas confondre avec Echinococcus oligarthrus qu’on trouve au Panama et en Argentine chez des félins (puma, jaguar) comme hôte définitif, alors que l’agouti serait l’hôte intermédiaire, développant des kystes polycystiques semblables à ceux d’E. vogeli.
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes s'accrochent dans l'intestin d'animaux carnivores (puma ?, jaguar ?). 
 Les embryophores sont excrétés avec les matières fécales. Des rongeurs se contaminent en les ingérant. Libéré par les sucs digestifs, l'embryon hexacanthe (embryon du ténia échinocoque) franchit la muqueuse digestive et migre par voie sanguine vers le foie, le poumon et parfois vers d'autres viscères.
@@ -613,7 +631,9 @@
           <t>Tableau clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce parasite est responsable de lésions disséminées, semblables à celles d'autres échinocoques. 
 Les pays d'endémie sont souvent pauvres, ce qui rend le traitement chirurgical exceptionnel. Le diagnostic y est tardif ou confondu avec celui d’un cancer.
@@ -645,7 +665,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La sérologie, l'immuno-électrophorèse et l'immuno-fluorescence apportant une confirmation indirecte de la parasitose.
 </t>
@@ -676,10 +698,12 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>fluoromébendazole ?
-Dans les cas tardifs, le traitement repose sur une chirurgie d'exérèse[3].</t>
+Dans les cas tardifs, le traitement repose sur une chirurgie d'exérèse.</t>
         </is>
       </c>
     </row>
